--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Plxnd1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Plxnd1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H2">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I2">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J2">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N2">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O2">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P2">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q2">
-        <v>58.26759345922466</v>
+        <v>24.896222714502</v>
       </c>
       <c r="R2">
-        <v>524.408341133022</v>
+        <v>224.066004430518</v>
       </c>
       <c r="S2">
-        <v>0.01858202848120022</v>
+        <v>0.00857618937289231</v>
       </c>
       <c r="T2">
-        <v>0.02011440006181541</v>
+        <v>0.00894095428404511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H3">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I3">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J3">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.164566</v>
       </c>
       <c r="O3">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P3">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q3">
-        <v>18.24877549899066</v>
+        <v>8.805447422244001</v>
       </c>
       <c r="R3">
-        <v>164.238979490916</v>
+        <v>79.24902680019601</v>
       </c>
       <c r="S3">
-        <v>0.005819688886011278</v>
+        <v>0.003033278801857053</v>
       </c>
       <c r="T3">
-        <v>0.006299610971265223</v>
+        <v>0.003162291073456173</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H4">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I4">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J4">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N4">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O4">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P4">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q4">
-        <v>16.23054975096355</v>
+        <v>9.845335745058</v>
       </c>
       <c r="R4">
-        <v>146.074947758672</v>
+        <v>88.60802170552199</v>
       </c>
       <c r="S4">
-        <v>0.005176059621357066</v>
+        <v>0.003391496965527213</v>
       </c>
       <c r="T4">
-        <v>0.005602904659903961</v>
+        <v>0.003535745073342528</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H5">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I5">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J5">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N5">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O5">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P5">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q5">
-        <v>18.213627648574</v>
+        <v>5.7224530494</v>
       </c>
       <c r="R5">
-        <v>109.281765891444</v>
+        <v>34.33471829640001</v>
       </c>
       <c r="S5">
-        <v>0.005808479939172714</v>
+        <v>0.001971256507138825</v>
       </c>
       <c r="T5">
-        <v>0.004191651783899784</v>
+        <v>0.001370065697489038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H6">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I6">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J6">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N6">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O6">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P6">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q6">
-        <v>13.05348382642867</v>
+        <v>11.301182406408</v>
       </c>
       <c r="R6">
-        <v>117.481354437858</v>
+        <v>101.710641657672</v>
       </c>
       <c r="S6">
-        <v>0.004162866420960497</v>
+        <v>0.003893003431339707</v>
       </c>
       <c r="T6">
-        <v>0.004506158231315376</v>
+        <v>0.004058581753949819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>34.651085</v>
       </c>
       <c r="I7">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J7">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N7">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O7">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P7">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q7">
-        <v>1280.523904407638</v>
+        <v>1133.904214029778</v>
       </c>
       <c r="R7">
-        <v>11524.71513966875</v>
+        <v>10205.13792626801</v>
       </c>
       <c r="S7">
-        <v>0.4083699059789017</v>
+        <v>0.3906045259056687</v>
       </c>
       <c r="T7">
-        <v>0.4420462314098779</v>
+        <v>0.4072178280370571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>34.651085</v>
       </c>
       <c r="I8">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J8">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>104.164566</v>
       </c>
       <c r="O8">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P8">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q8">
         <v>401.0461367171234</v>
@@ -948,10 +948,10 @@
         <v>3609.41523045411</v>
       </c>
       <c r="S8">
-        <v>0.1278970057338638</v>
+        <v>0.1381513836534503</v>
       </c>
       <c r="T8">
-        <v>0.1384440639859074</v>
+        <v>0.1440272773625222</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>34.651085</v>
       </c>
       <c r="I9">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J9">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N9">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O9">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P9">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q9">
-        <v>356.6923860057911</v>
+        <v>448.4080905717661</v>
       </c>
       <c r="R9">
-        <v>3210.231474052121</v>
+        <v>4035.672815145895</v>
       </c>
       <c r="S9">
-        <v>0.1137522194120675</v>
+        <v>0.1544665126585825</v>
       </c>
       <c r="T9">
-        <v>0.1231328243570717</v>
+        <v>0.1610363260472751</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>34.651085</v>
       </c>
       <c r="I10">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J10">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N10">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O10">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P10">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q10">
-        <v>400.273706280665</v>
+        <v>260.6304458998334</v>
       </c>
       <c r="R10">
-        <v>2401.64223768399</v>
+        <v>1563.782675399</v>
       </c>
       <c r="S10">
-        <v>0.1276506711331383</v>
+        <v>0.08978133293595282</v>
       </c>
       <c r="T10">
-        <v>0.09211827689421818</v>
+        <v>0.06239995864816651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>34.651085</v>
       </c>
       <c r="I11">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J11">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N11">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O11">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P11">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q11">
-        <v>286.8712621062284</v>
+        <v>514.7149630325579</v>
       </c>
       <c r="R11">
-        <v>2581.841358956055</v>
+        <v>4632.434667293021</v>
       </c>
       <c r="S11">
-        <v>0.09148567233390453</v>
+        <v>0.1773077404813367</v>
       </c>
       <c r="T11">
-        <v>0.09903006095970943</v>
+        <v>0.1848490434296841</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H12">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I12">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J12">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>110.864399</v>
+        <v>98.170451</v>
       </c>
       <c r="N12">
-        <v>332.593197</v>
+        <v>294.511353</v>
       </c>
       <c r="O12">
-        <v>0.4698467856635862</v>
+        <v>0.4110278868558457</v>
       </c>
       <c r="P12">
-        <v>0.4940325573104491</v>
+        <v>0.4243928215400083</v>
       </c>
       <c r="Q12">
-        <v>3.501208584819</v>
+        <v>34.3917105022515</v>
       </c>
       <c r="R12">
-        <v>31.510877263371</v>
+        <v>206.350263013509</v>
       </c>
       <c r="S12">
-        <v>0.00111656503691469</v>
+        <v>0.01184717157728471</v>
       </c>
       <c r="T12">
-        <v>0.001208642849205618</v>
+        <v>0.008234039218906078</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H13">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I13">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J13">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>104.164566</v>
       </c>
       <c r="O13">
-        <v>0.1471508947164138</v>
+        <v>0.1453748421312515</v>
       </c>
       <c r="P13">
-        <v>0.1547256149142253</v>
+        <v>0.150101833491052</v>
       </c>
       <c r="Q13">
-        <v>1.096540386282</v>
+        <v>12.163869276933</v>
       </c>
       <c r="R13">
-        <v>9.868863476537999</v>
+        <v>72.983215661598</v>
       </c>
       <c r="S13">
-        <v>0.0003496960056010788</v>
+        <v>0.004190179675944097</v>
       </c>
       <c r="T13">
-        <v>0.000378533773306574</v>
+        <v>0.00291226505507355</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H14">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I14">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J14">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>30.88149066666667</v>
+        <v>38.82199566666667</v>
       </c>
       <c r="N14">
-        <v>92.64447200000001</v>
+        <v>116.465987</v>
       </c>
       <c r="O14">
-        <v>0.1308767219874919</v>
+        <v>0.1625430328561575</v>
       </c>
       <c r="P14">
-        <v>0.1376137149998179</v>
+        <v>0.1678282630971171</v>
       </c>
       <c r="Q14">
-        <v>0.975268356744</v>
+        <v>13.6003738649185</v>
       </c>
       <c r="R14">
-        <v>8.777415210696001</v>
+        <v>81.602243189511</v>
       </c>
       <c r="S14">
-        <v>0.0003110213294549798</v>
+        <v>0.004685023232047733</v>
       </c>
       <c r="T14">
-        <v>0.00033666978041415</v>
+        <v>0.003256191976499478</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H15">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I15">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J15">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>34.654647</v>
+        <v>22.5647</v>
       </c>
       <c r="N15">
-        <v>69.30929399999999</v>
+        <v>45.1294</v>
       </c>
       <c r="O15">
-        <v>0.1468674763776624</v>
+        <v>0.09447568860141126</v>
       </c>
       <c r="P15">
-        <v>0.1029517382467741</v>
+        <v>0.06503176602637677</v>
       </c>
       <c r="Q15">
-        <v>1.094428406907</v>
+        <v>7.90501237455</v>
       </c>
       <c r="R15">
-        <v>6.566570441441999</v>
+        <v>31.6200494982</v>
       </c>
       <c r="S15">
-        <v>0.0003490224775116542</v>
+        <v>0.002723099158319609</v>
       </c>
       <c r="T15">
-        <v>0.000251869801704302</v>
+        <v>0.001261741680721218</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H16">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I16">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J16">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>24.836561</v>
+        <v>44.56267066666667</v>
       </c>
       <c r="N16">
-        <v>74.509683</v>
+        <v>133.688012</v>
       </c>
       <c r="O16">
-        <v>0.1052581212548456</v>
+        <v>0.186578549555334</v>
       </c>
       <c r="P16">
-        <v>0.1106763745287336</v>
+        <v>0.1926453158454455</v>
       </c>
       <c r="Q16">
-        <v>0.784363432941</v>
+        <v>15.611484445306</v>
       </c>
       <c r="R16">
-        <v>7.059270896468999</v>
+        <v>93.66890667183601</v>
       </c>
       <c r="S16">
-        <v>0.0002501401342535484</v>
+        <v>0.005377805642657511</v>
       </c>
       <c r="T16">
-        <v>0.0002707680023729632</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.1413485</v>
-      </c>
-      <c r="H17">
-        <v>2.282697</v>
-      </c>
-      <c r="I17">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J17">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>110.864399</v>
-      </c>
-      <c r="N17">
-        <v>332.593197</v>
-      </c>
-      <c r="O17">
-        <v>0.4698467856635862</v>
-      </c>
-      <c r="P17">
-        <v>0.4940325573104491</v>
-      </c>
-      <c r="Q17">
-        <v>126.5349155020515</v>
-      </c>
-      <c r="R17">
-        <v>759.2094930123089</v>
-      </c>
-      <c r="S17">
-        <v>0.04035305500253401</v>
-      </c>
-      <c r="T17">
-        <v>0.02912051978460801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.1413485</v>
-      </c>
-      <c r="H18">
-        <v>2.282697</v>
-      </c>
-      <c r="I18">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J18">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>34.721522</v>
-      </c>
-      <c r="N18">
-        <v>104.164566</v>
-      </c>
-      <c r="O18">
-        <v>0.1471508947164138</v>
-      </c>
-      <c r="P18">
-        <v>0.1547256149142253</v>
-      </c>
-      <c r="Q18">
-        <v>39.629357052417</v>
-      </c>
-      <c r="R18">
-        <v>237.776142314502</v>
-      </c>
-      <c r="S18">
-        <v>0.01263813721695902</v>
-      </c>
-      <c r="T18">
-        <v>0.009120229554960222</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.1413485</v>
-      </c>
-      <c r="H19">
-        <v>2.282697</v>
-      </c>
-      <c r="I19">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J19">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>30.88149066666667</v>
-      </c>
-      <c r="N19">
-        <v>92.64447200000001</v>
-      </c>
-      <c r="O19">
-        <v>0.1308767219874919</v>
-      </c>
-      <c r="P19">
-        <v>0.1376137149998179</v>
-      </c>
-      <c r="Q19">
-        <v>35.246543050164</v>
-      </c>
-      <c r="R19">
-        <v>211.479258300984</v>
-      </c>
-      <c r="S19">
-        <v>0.01124042075429679</v>
-      </c>
-      <c r="T19">
-        <v>0.008111576557023093</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.1413485</v>
-      </c>
-      <c r="H20">
-        <v>2.282697</v>
-      </c>
-      <c r="I20">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J20">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>34.654647</v>
-      </c>
-      <c r="N20">
-        <v>69.30929399999999</v>
-      </c>
-      <c r="O20">
-        <v>0.1468674763776624</v>
-      </c>
-      <c r="P20">
-        <v>0.1029517382467741</v>
-      </c>
-      <c r="Q20">
-        <v>39.55302937147949</v>
-      </c>
-      <c r="R20">
-        <v>158.212117485918</v>
-      </c>
-      <c r="S20">
-        <v>0.01261379567379786</v>
-      </c>
-      <c r="T20">
-        <v>0.006068442425730714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.1413485</v>
-      </c>
-      <c r="H21">
-        <v>2.282697</v>
-      </c>
-      <c r="I21">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J21">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>24.836561</v>
-      </c>
-      <c r="N21">
-        <v>74.509683</v>
-      </c>
-      <c r="O21">
-        <v>0.1052581212548456</v>
-      </c>
-      <c r="P21">
-        <v>0.1106763745287336</v>
-      </c>
-      <c r="Q21">
-        <v>28.3471716425085</v>
-      </c>
-      <c r="R21">
-        <v>170.083029855051</v>
-      </c>
-      <c r="S21">
-        <v>0.009040152845701088</v>
-      </c>
-      <c r="T21">
-        <v>0.00652376752596768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.120934</v>
-      </c>
-      <c r="I22">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J22">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>110.864399</v>
-      </c>
-      <c r="N22">
-        <v>332.593197</v>
-      </c>
-      <c r="O22">
-        <v>0.4698467856635862</v>
-      </c>
-      <c r="P22">
-        <v>0.4940325573104491</v>
-      </c>
-      <c r="Q22">
-        <v>4.469091742888667</v>
-      </c>
-      <c r="R22">
-        <v>40.221825685998</v>
-      </c>
-      <c r="S22">
-        <v>0.001425231164035772</v>
-      </c>
-      <c r="T22">
-        <v>0.00154276320494213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.120934</v>
-      </c>
-      <c r="I23">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J23">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>34.721522</v>
-      </c>
-      <c r="N23">
-        <v>104.164566</v>
-      </c>
-      <c r="O23">
-        <v>0.1471508947164138</v>
-      </c>
-      <c r="P23">
-        <v>0.1547256149142253</v>
-      </c>
-      <c r="Q23">
-        <v>1.399670847182667</v>
-      </c>
-      <c r="R23">
-        <v>12.597037624644</v>
-      </c>
-      <c r="S23">
-        <v>0.0004463668739786671</v>
-      </c>
-      <c r="T23">
-        <v>0.0004831766287858439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.120934</v>
-      </c>
-      <c r="I24">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J24">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>30.88149066666667</v>
-      </c>
-      <c r="N24">
-        <v>92.64447200000001</v>
-      </c>
-      <c r="O24">
-        <v>0.1308767219874919</v>
-      </c>
-      <c r="P24">
-        <v>0.1376137149998179</v>
-      </c>
-      <c r="Q24">
-        <v>1.244874064094222</v>
-      </c>
-      <c r="R24">
-        <v>11.203866576848</v>
-      </c>
-      <c r="S24">
-        <v>0.000397000870315575</v>
-      </c>
-      <c r="T24">
-        <v>0.0004297396454049884</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.120934</v>
-      </c>
-      <c r="I25">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J25">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>34.654647</v>
-      </c>
-      <c r="N25">
-        <v>69.30929399999999</v>
-      </c>
-      <c r="O25">
-        <v>0.1468674763776624</v>
-      </c>
-      <c r="P25">
-        <v>0.1029517382467741</v>
-      </c>
-      <c r="Q25">
-        <v>1.396975026766</v>
-      </c>
-      <c r="R25">
-        <v>8.381850160595999</v>
-      </c>
-      <c r="S25">
-        <v>0.000445507154041928</v>
-      </c>
-      <c r="T25">
-        <v>0.0003214973412210724</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.120934</v>
-      </c>
-      <c r="I26">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J26">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>24.836561</v>
-      </c>
-      <c r="N26">
-        <v>74.509683</v>
-      </c>
-      <c r="O26">
-        <v>0.1052581212548456</v>
-      </c>
-      <c r="P26">
-        <v>0.1106763745287336</v>
-      </c>
-      <c r="Q26">
-        <v>1.001194889324666</v>
-      </c>
-      <c r="R26">
-        <v>9.010754003921999</v>
-      </c>
-      <c r="S26">
-        <v>0.0003192895200259504</v>
-      </c>
-      <c r="T26">
-        <v>0.0003456198093682059</v>
+        <v>0.003737690661811555</v>
       </c>
     </row>
   </sheetData>
